--- a/MileStone Chart.xlsx
+++ b/MileStone Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB DESIGN\GitHub\Projects\AcadProjectRelease2\AcadProjectRelease2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -38,28 +38,38 @@
     <t>Add code and test</t>
   </si>
   <si>
-    <t>Finish Release 1.0</t>
-  </si>
-  <si>
-    <t>Develop Release 1.0</t>
-  </si>
-  <si>
-    <t>Develop Release 2.0</t>
-  </si>
-  <si>
-    <t>Finish Release 2.0</t>
-  </si>
-  <si>
-    <t>Making API Guide</t>
-  </si>
-  <si>
-    <t>Finish API Guide</t>
-  </si>
-  <si>
     <t>Text Placement</t>
   </si>
   <si>
-    <t>Deliver Solution</t>
+    <t>Finish Beta 0.9.2</t>
+  </si>
+  <si>
+    <t>Develop Beta  0.9.2</t>
+  </si>
+  <si>
+    <t>Finish Beta 0.9.1</t>
+  </si>
+  <si>
+    <t>Making API guide</t>
+  </si>
+  <si>
+    <t>Develop Beta  0.9</t>
+  </si>
+  <si>
+    <t>Finish Beta 0.9</t>
+  </si>
+  <si>
+    <t>Develop Beta 0.9.1</t>
+  </si>
+  <si>
+    <t>Meeting with GoldSand
+Collect new requirements</t>
+  </si>
+  <si>
+    <t>Finish API guide</t>
+  </si>
+  <si>
+    <t>Deliver solution</t>
   </si>
 </sst>
 </file>
@@ -144,12 +154,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,8 +272,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.7760286585466163E-2"/>
-                  <c:y val="-0.18752551778678606"/>
+                  <c:x val="3.4643830956654171E-3"/>
+                  <c:y val="-0.18226955372749146"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -281,8 +293,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.915769071103593E-3"/>
-                  <c:y val="-0.17462731335876028"/>
+                  <c:x val="2.0806848457972125E-2"/>
+                  <c:y val="-0.20902301864397427"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -302,8 +314,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4578845355517517E-2"/>
-                  <c:y val="-0.18752551778678606"/>
+                  <c:x val="8.5657928430764882E-4"/>
+                  <c:y val="-0.2181268786974547"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -323,10 +335,41 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.1784037104379779E-2"/>
-                  <c:y val="-0.17892648913847889"/>
+                  <c:x val="1.8804871486390342E-2"/>
+                  <c:y val="-0.23052058298686143"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -344,10 +387,41 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.8315381422070056E-3"/>
-                  <c:y val="-0.17892648913847889"/>
+                  <c:x val="1.366203569878562E-3"/>
+                  <c:y val="-0.17892609001961188"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -365,8 +439,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0892018552189889E-2"/>
-                  <c:y val="-0.18322600346263249"/>
+                  <c:x val="1.214046373091684E-2"/>
+                  <c:y val="-0.20937560796499219"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -386,8 +460,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.1784037104379779E-2"/>
-                  <c:y val="-0.17032746049017172"/>
+                  <c:x val="1.0498899353669777E-2"/>
+                  <c:y val="-0.1961241414939216"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -405,6 +479,27 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1759352856874792E-2"/>
+                  <c:y val="-0.20472350577539683"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.2289422677758758E-2"/>
@@ -425,11 +520,32 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8315381422070056E-3"/>
                   <c:y val="-0.18322600346263249"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.17797004085891402"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -510,51 +626,59 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$13</c:f>
+              <c:f>Sheet1!$F$3:$F$15</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Meeting with GoldSand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Develop Release 1.0</c:v>
+                  <c:v>Develop Beta  0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Add code and test</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Finish Release 1.0</c:v>
+                  <c:v>Finish Beta 0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Meeting with GoldSand</c:v>
+                  <c:v>Meeting with GoldSand
+Collect new requirements</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Develop Release 2.0</c:v>
+                  <c:v>Develop Beta 0.9.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Finish Release 2.0</c:v>
+                  <c:v>Finish Beta 0.9.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Meeting with GoldSand</c:v>
+                  <c:v>Meeting with GoldSand
+Collect new requirements</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Making API Guide</c:v>
+                  <c:v>Develop Beta  0.9.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Finish API Guide</c:v>
+                  <c:v>Finish Beta 0.9.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Deliver Solution</c:v>
+                  <c:v>Making API guide</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Finish API guide</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Deliver solution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>Sheet1!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -586,6 +710,12 @@
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -602,8 +732,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="1964638112"/>
-        <c:axId val="2056585824"/>
+        <c:axId val="152073520"/>
+        <c:axId val="152072432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -638,10 +768,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:f>Sheet1!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>B1dd\-mmm</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42756</c:v>
                 </c:pt>
@@ -661,18 +791,24 @@
                   <c:v>42776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42790</c:v>
+                  <c:v>42783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42791</c:v>
+                  <c:v>42784</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>42785</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>42792</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>42799</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>42800</c:v>
                 </c:pt>
               </c:numCache>
@@ -680,10 +816,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$13</c:f>
+              <c:f>Sheet1!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -715,6 +851,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -732,11 +874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2056588000"/>
-        <c:axId val="2056584192"/>
+        <c:axId val="152070800"/>
+        <c:axId val="152075152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2056588000"/>
+        <c:axId val="152070800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056584192"/>
+        <c:crossAx val="152075152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056584192"/>
+        <c:axId val="152075152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,12 +950,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056588000"/>
+        <c:crossAx val="152070800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056585824"/>
+        <c:axId val="152072432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,12 +965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1964638112"/>
+        <c:crossAx val="152073520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1964638112"/>
+        <c:axId val="152073520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +980,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056585824"/>
+        <c:crossAx val="152072432"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1436,16 +1579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4281</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582201</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21404</xdr:rowOff>
+      <xdr:rowOff>171236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>256854</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85620</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>524409</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1732,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,14 +1896,14 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1770,12 +1913,12 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
-        <f>IF(B3&lt;&gt;"", B3, "")</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E15" si="0">IF(B3&lt;&gt;"", B3, "")</f>
         <v>42756</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>IF(AND(B3&lt;&gt;"", C3&lt;&gt;""),C3,NA())</f>
+        <f t="shared" ref="F3:F15" si="1">IF(AND(B3&lt;&gt;"", C3&lt;&gt;""),C3,NA())</f>
         <v>Meeting with GoldSand</v>
       </c>
       <c r="G3" s="2">
@@ -1788,15 +1931,15 @@
         <v>42761</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6">
-        <f>IF(B4&lt;&gt;"", B4, "")</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
         <v>42761</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>IF(AND(B4&lt;&gt;"", C4&lt;&gt;""),C4,NA())</f>
-        <v>Develop Release 1.0</v>
+        <f t="shared" si="1"/>
+        <v>Develop Beta  0.9</v>
       </c>
       <c r="G4" s="2">
         <f>IF(F4&lt;&gt;"",-10,"")</f>
@@ -1810,16 +1953,16 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
-        <f>IF(B5&lt;&gt;"", B5, "")</f>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>42762</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(AND(B5&lt;&gt;"", C5&lt;&gt;""),C5,NA())</f>
+        <f t="shared" si="1"/>
         <v>Add code and test</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G4:G13" si="0">IF(F5&lt;&gt;"",10,"")</f>
+        <f t="shared" ref="G5:G13" si="2">IF(F5&lt;&gt;"",10,"")</f>
         <v>10</v>
       </c>
     </row>
@@ -1828,38 +1971,39 @@
         <v>42773</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6">
-        <f>IF(B6&lt;&gt;"", B6, "")</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>42773</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(AND(B6&lt;&gt;"", C6&lt;&gt;""),C6,NA())</f>
-        <v>Finish Release 1.0</v>
+        <f t="shared" si="1"/>
+        <v>Finish Beta 0.9</v>
       </c>
       <c r="G6" s="2">
         <f>IF(F6&lt;&gt;"",-10,"")</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>42775</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <f>IF(B7&lt;&gt;"", B7, "")</f>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>42775</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f>IF(AND(B7&lt;&gt;"", C7&lt;&gt;""),C7,NA())</f>
-        <v>Meeting with GoldSand</v>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Meeting with GoldSand
+Collect new requirements</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -1868,15 +2012,15 @@
         <v>42776</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6">
-        <f>IF(B8&lt;&gt;"", B8, "")</f>
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>42776</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(AND(B8&lt;&gt;"", C8&lt;&gt;""),C8,NA())</f>
-        <v>Develop Release 2.0</v>
+        <f t="shared" si="1"/>
+        <v>Develop Beta 0.9.1</v>
       </c>
       <c r="G8" s="2">
         <f>IF(F8&lt;&gt;"",-10,"")</f>
@@ -1885,38 +2029,39 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>42790</v>
+        <v>42783</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
-        <f>IF(B9&lt;&gt;"", B9, "")</f>
-        <v>42790</v>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>42783</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(AND(B9&lt;&gt;"", C9&lt;&gt;""),C9,NA())</f>
-        <v>Finish Release 2.0</v>
+        <f t="shared" si="1"/>
+        <v>Finish Beta 0.9.1</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>42784</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>42791</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <f>IF(B10&lt;&gt;"", B10, "")</f>
-        <v>42791</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f>IF(AND(B10&lt;&gt;"", C10&lt;&gt;""),C10,NA())</f>
-        <v>Meeting with GoldSand</v>
+        <v>42784</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Meeting with GoldSand
+Collect new requirements</v>
       </c>
       <c r="G10" s="2">
         <f>IF(F10&lt;&gt;"",-10,"")</f>
@@ -1925,38 +2070,38 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>42792</v>
+        <v>42785</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
-        <f>IF(B11&lt;&gt;"", B11, "")</f>
-        <v>42792</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>42785</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>IF(AND(B11&lt;&gt;"", C11&lt;&gt;""),C11,NA())</f>
-        <v>Making API Guide</v>
+        <f t="shared" si="1"/>
+        <v>Develop Beta  0.9.2</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>42799</v>
+        <v>42792</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6">
-        <f>IF(B12&lt;&gt;"", B12, "")</f>
-        <v>42799</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>42792</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF(AND(B12&lt;&gt;"", C12&lt;&gt;""),C12,NA())</f>
-        <v>Finish API Guide</v>
+        <f t="shared" si="1"/>
+        <v>Finish Beta 0.9.2</v>
       </c>
       <c r="G12" s="2">
         <f>IF(F12&lt;&gt;"",-10,"")</f>
@@ -1965,36 +2110,63 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>42800</v>
+        <v>42793</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
-        <f>IF(B13&lt;&gt;"", B13, "")</f>
-        <v>42800</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>42793</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF(AND(B13&lt;&gt;"", C13&lt;&gt;""),C13,NA())</f>
-        <v>Deliver Solution</v>
+        <f t="shared" si="1"/>
+        <v>Making API guide</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="6" t="str">
-        <f>IF(B14&lt;&gt;"", B14, "")</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="1">
+        <v>42799</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>42799</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Finish API guide</v>
+      </c>
+      <c r="G14" s="2">
+        <f>IF(F14&lt;&gt;"",-10,"")</f>
+        <v>-10</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
+      <c r="B15" s="1">
+        <v>42800</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>42800</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Deliver solution</v>
+      </c>
+      <c r="G15" s="2">
+        <f>IF(F15&lt;&gt;"",10,"")</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MileStone Chart.xlsx
+++ b/MileStone Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>Text Placement</t>
-  </si>
-  <si>
-    <t>Finish Beta 0.9.2</t>
-  </si>
-  <si>
-    <t>Develop Beta  0.9.2</t>
-  </si>
-  <si>
-    <t>Finish Beta 0.9.1</t>
   </si>
   <si>
     <t>Making API guide</t>
@@ -69,7 +60,13 @@
     <t>Finish API guide</t>
   </si>
   <si>
-    <t>Deliver solution</t>
+    <t>Continue developing Beta 0.9.1</t>
+  </si>
+  <si>
+    <t>Finish Beta  0.9.1 and Official Release version 1.0</t>
+  </si>
+  <si>
+    <t>Deliver official version 1.0</t>
   </si>
 </sst>
 </file>
@@ -293,8 +290,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0806848457972125E-2"/>
-                  <c:y val="-0.20902301864397427"/>
+                  <c:x val="-2.2924914518319232E-3"/>
+                  <c:y val="-0.19624395320671639"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -314,8 +311,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5657928430764882E-4"/>
-                  <c:y val="-0.2181268786974547"/>
+                  <c:x val="-5.4432307222460818E-3"/>
+                  <c:y val="-0.21386740203633089"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -335,8 +332,108 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8804871486390342E-2"/>
-                  <c:y val="-0.23052058298686143"/>
+                  <c:x val="3.3334142370331139E-4"/>
+                  <c:y val="-0.19572054298295369"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6060405235832537E-3"/>
+                  <c:y val="-0.20502565956708935"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6770581560337845E-3"/>
+                  <c:y val="-0.1919754786311437"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -384,11 +481,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.366203569878562E-3"/>
-                  <c:y val="-0.17892609001961188"/>
+                  <c:x val="3.572080151386276E-3"/>
+                  <c:y val="-0.21787375975141596"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -431,75 +528,17 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.214046373091684E-2"/>
-                  <c:y val="-0.20937560796499219"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0498899353669777E-2"/>
-                  <c:y val="-0.1961241414939216"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.15508557475215512"/>
+                      <c:h val="0.12988940859905684"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.1759352856874792E-2"/>
-                  <c:y val="-0.20472350577539683"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.2289422677758758E-2"/>
@@ -520,7 +559,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8315381422070056E-3"/>
@@ -541,13 +580,42 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-0.17797004085891402"/>
+                  <c:x val="-1.2228935972778143E-2"/>
+                  <c:y val="-0.21059442791122288"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -557,7 +625,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12998176027032698"/>
+                      <c:h val="0.11931891549967985"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -600,7 +673,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -626,9 +698,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$15</c:f>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Meeting with GoldSand</c:v>
                 </c:pt>
@@ -649,36 +721,33 @@
                   <c:v>Develop Beta 0.9.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Finish Beta 0.9.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>Meeting with GoldSand
 Collect new requirements</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>Continue developing Beta 0.9.1</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>Develop Beta  0.9.2</c:v>
+                  <c:v>Finish Beta  0.9.1 and Official Release version 1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Finish Beta 0.9.2</c:v>
+                  <c:v>Making API guide</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Making API guide</c:v>
+                  <c:v>Finish API guide</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Finish API guide</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Deliver solution</c:v>
+                  <c:v>Deliver official version 1.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$15</c:f>
+              <c:f>Sheet1!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -714,9 +783,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,8 +798,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="152073520"/>
-        <c:axId val="152072432"/>
+        <c:axId val="641809936"/>
+        <c:axId val="641816464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -768,10 +834,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$15</c:f>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>B1dd\-mmm</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42756</c:v>
                 </c:pt>
@@ -791,35 +857,32 @@
                   <c:v>42776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42783</c:v>
+                  <c:v>42784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42784</c:v>
+                  <c:v>42785</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42785</c:v>
+                  <c:v>42792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42792</c:v>
+                  <c:v>42793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42793</c:v>
+                  <c:v>42797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42800</c:v>
+                  <c:v>42798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$15</c:f>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -854,9 +917,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -874,11 +934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152070800"/>
-        <c:axId val="152075152"/>
+        <c:axId val="641815920"/>
+        <c:axId val="641822448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152070800"/>
+        <c:axId val="641815920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152075152"/>
+        <c:crossAx val="641822448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -926,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152075152"/>
+        <c:axId val="641822448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,12 +1010,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152070800"/>
+        <c:crossAx val="641815920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152072432"/>
+        <c:axId val="641816464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,12 +1025,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152073520"/>
+        <c:crossAx val="641809936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="152073520"/>
+        <c:axId val="641809936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152072432"/>
+        <c:crossAx val="641816464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1580,15 +1640,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>582201</xdr:colOff>
+      <xdr:colOff>315501</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171236</xdr:rowOff>
+      <xdr:rowOff>152185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>524409</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>42812</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1873,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,11 +1974,11 @@
         <v>2</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E15" si="0">IF(B3&lt;&gt;"", B3, "")</f>
+        <f t="shared" ref="E3:E14" si="0">IF(B3&lt;&gt;"", B3, "")</f>
         <v>42756</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F15" si="1">IF(AND(B3&lt;&gt;"", C3&lt;&gt;""),C3,NA())</f>
+        <f t="shared" ref="F3:F13" si="1">IF(AND(B3&lt;&gt;"", C3&lt;&gt;""),C3,NA())</f>
         <v>Meeting with GoldSand</v>
       </c>
       <c r="G3" s="2">
@@ -1931,7 +1991,7 @@
         <v>42761</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
@@ -1962,7 +2022,7 @@
         <v>Add code and test</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G13" si="2">IF(F5&lt;&gt;"",10,"")</f>
+        <f t="shared" ref="G5:G12" si="2">IF(F5&lt;&gt;"",10,"")</f>
         <v>10</v>
       </c>
     </row>
@@ -1971,7 +2031,7 @@
         <v>42773</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
@@ -1991,7 +2051,7 @@
         <v>42775</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
@@ -2012,7 +2072,7 @@
         <v>42776</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
@@ -2027,20 +2087,21 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>42783</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>42784</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>42783</v>
-      </c>
-      <c r="F9" s="2" t="str">
+        <v>42784</v>
+      </c>
+      <c r="F9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Finish Beta 0.9.1</v>
+        <v>Meeting with GoldSand
+Collect new requirements</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
@@ -2049,39 +2110,38 @@
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>42784</v>
+        <v>42785</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>42784</v>
+        <v>42785</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Meeting with GoldSand
-Collect new requirements</v>
+        <v>Continue developing Beta 0.9.1</v>
       </c>
       <c r="G10" s="2">
         <f>IF(F10&lt;&gt;"",-10,"")</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>42785</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>42792</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>42785</v>
-      </c>
-      <c r="F11" s="2" t="str">
+        <v>42792</v>
+      </c>
+      <c r="F11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Develop Beta  0.9.2</v>
+        <v>Finish Beta  0.9.1 and Official Release version 1.0</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
@@ -2090,18 +2150,18 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>42792</v>
+        <v>42793</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>42792</v>
+        <v>42793</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Finish Beta 0.9.2</v>
+        <v>Making API guide</v>
       </c>
       <c r="G12" s="2">
         <f>IF(F12&lt;&gt;"",-10,"")</f>
@@ -2110,62 +2170,42 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>42793</v>
+        <v>42797</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>42793</v>
+        <v>42797</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Making API guide</v>
+        <v>Finish API guide</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(F13&lt;&gt;"",10,"")</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>42799</v>
+        <v>42798</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>42799</v>
+        <v>42798</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Finish API guide</v>
+        <f>IF(AND(B14&lt;&gt;"", C14&lt;&gt;""),C14,NA())</f>
+        <v>Deliver official version 1.0</v>
       </c>
       <c r="G14" s="2">
         <f>IF(F14&lt;&gt;"",-10,"")</f>
         <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>42800</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>42800</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Deliver solution</v>
-      </c>
-      <c r="G15" s="2">
-        <f>IF(F15&lt;&gt;"",10,"")</f>
-        <v>10</v>
       </c>
     </row>
   </sheetData>
